--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2864163.607314107</v>
+        <v>2968343.241765178</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>346.2657876002849</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -795,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>186.0540720415099</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>110.928091294372</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>329.7760087079228</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>14.59479991660671</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>81.7720035736635</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>149.8477161443641</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.792004777350316</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>16.70871526401085</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>195.2768636342819</v>
+        <v>90.95306251977928</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.6028762599951</v>
+        <v>54.84205284513764</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.4912798484951</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2011,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>124.8808320771206</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>18.66234525555548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>265.9042934353384</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>75.92936329650534</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>155.2435806730863</v>
+        <v>115.6949510903003</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>219.2450387532285</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>77.73359659137239</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>136.6755965411354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>139.368773976748</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>160.6789846282041</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>177.9413471369467</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>80.33989744909005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>15.09910835322274</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,22 +4427,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,7 +4451,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C4" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>541.2677155424757</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>541.2677155424757</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V4" t="n">
-        <v>541.2677155424757</v>
+        <v>527.322087337517</v>
       </c>
       <c r="W4" t="n">
-        <v>541.2677155424757</v>
+        <v>527.322087337517</v>
       </c>
       <c r="X4" t="n">
-        <v>541.2677155424757</v>
+        <v>527.322087337517</v>
       </c>
       <c r="Y4" t="n">
-        <v>541.2677155424757</v>
+        <v>527.322087337517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3310.863599471185</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3310.863599471185</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3057.333122745021</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2726.27023540145</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.501580131336</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2678.274518176917</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>838.2890224104441</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>838.2890224104441</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>838.2890224104441</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="U7" t="n">
-        <v>549.1861555360877</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="V7" t="n">
-        <v>294.5016673302008</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302008</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>679.6952191369613</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140706</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140706</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.236214140706</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>909.4479615424621</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>498.4620567528545</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>83.38960659785096</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204828</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228008</v>
@@ -4887,10 +4889,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4990,22 +4992,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>723.6376486118401</v>
+        <v>829.0152254951761</v>
       </c>
       <c r="U10" t="n">
-        <v>723.6376486118401</v>
+        <v>829.0152254951761</v>
       </c>
       <c r="V10" t="n">
-        <v>468.9531604059532</v>
+        <v>829.0152254951761</v>
       </c>
       <c r="W10" t="n">
-        <v>468.9531604059532</v>
+        <v>829.0152254951761</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>829.0152254951761</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>829.0152254951761</v>
       </c>
     </row>
     <row r="11">
@@ -5024,31 +5026,31 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5124,10 +5126,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5300,25 +5302,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311994</v>
+        <v>3028.451182298828</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>2859.514999370921</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>2709.398359958586</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3658.881777170615</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>3430.892226272598</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614391</v>
+        <v>3210.099647129068</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>709.4207169875</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>561.5076234051069</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,16 +6317,16 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2290.151385930679</v>
+        <v>2263.053792872764</v>
       </c>
       <c r="T28" t="n">
-        <v>2070.54992095362</v>
+        <v>2043.452327895704</v>
       </c>
       <c r="U28" t="n">
-        <v>1781.474694297818</v>
+        <v>1754.377101239902</v>
       </c>
       <c r="V28" t="n">
-        <v>1526.790206091931</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W28" t="n">
-        <v>1237.37303605497</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>982.2858920990373</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,22 +6548,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6679,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718132</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>835.5837926935562</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>835.5837926935562</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667326</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1017.232257523796</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,31 +6955,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096656</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101294</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7409,28 +7411,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O42" t="n">
         <v>1896.176478190824</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>633.992644467967</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556313</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.22910392194223</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.0317184880959</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>161.3036423121236</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>148.5844758430723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>20.61870490125256</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>69.4916847264259</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>25.78270532855831</v>
+        <v>65.3313349113443</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>32.8926045705995</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>11.93987647707698</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.052274046183271</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>125.5054897610401</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>74.19629618688128</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>66.73277020259223</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>66.09406519747913</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>271.4238899833683</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>106.465793928349</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="14">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365059</v>
@@ -26329,31 +26331,31 @@
         <v>686074.6097365059</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073549</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687966</v>
@@ -26436,7 +26438,7 @@
         <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26448,7 +26450,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26528,7 +26530,7 @@
         <v>496354.8197191948</v>
       </c>
       <c r="E6" t="n">
-        <v>244102.9780983641</v>
+        <v>244102.9780983637</v>
       </c>
       <c r="F6" t="n">
         <v>569515.4399057191</v>
@@ -26537,31 +26539,31 @@
         <v>569515.4399057191</v>
       </c>
       <c r="H6" t="n">
-        <v>569515.4399057192</v>
+        <v>569515.4399057191</v>
       </c>
       <c r="I6" t="n">
         <v>569515.439905719</v>
       </c>
       <c r="J6" t="n">
-        <v>351984.2375084414</v>
+        <v>351984.2375084411</v>
       </c>
       <c r="K6" t="n">
-        <v>569515.4399057187</v>
+        <v>569515.4399057189</v>
       </c>
       <c r="L6" t="n">
-        <v>569515.439905719</v>
+        <v>569515.4399057188</v>
       </c>
       <c r="M6" t="n">
-        <v>484460.4119702072</v>
+        <v>484460.411970207</v>
       </c>
       <c r="N6" t="n">
-        <v>569515.4399057192</v>
+        <v>569515.4399057191</v>
       </c>
       <c r="O6" t="n">
         <v>569515.4399057187</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.4399057184</v>
+        <v>569515.4399057187</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>19.00710417072264</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112257</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>33.49487723465927</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>141.2095520294561</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>52.95783295555782</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>94.59296187156913</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7.160149096383833</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>69.70123313180514</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>349.8910368433326</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>277.8990491233096</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>24.27208564188726</v>
+        <v>128.5958867563899</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="36">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O9" t="n">
         <v>557.7086478970251</v>
@@ -31844,13 +31846,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32020,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,22 +32311,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0195168876591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>451.7125911569009</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O30" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>730.4561889249562</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34205,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,10 +34222,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>223.6976288294625</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>336.3457189021236</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525807</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>451.8478747603109</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>313.1582113770268</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O30" t="n">
-        <v>191.3582339884378</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>599.1144768416229</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>81.10138438501811</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>108.4053175402703</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2968343.241765178</v>
+        <v>2964330.631751184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>346.2657876002849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>28.93420885558077</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>110.928091294372</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.7760087079228</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>359.5976429179803</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>149.8477161443641</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.792004777350316</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>199.8294367171075</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>90.95306251977928</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.552212841269</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.84205284513764</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>127.6210071331219</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>101.4912798484951</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>124.8808320771206</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>265.9042934353384</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>75.92936329650534</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>115.6949510903003</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>77.73359659137239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>139.368773976748</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>177.9413471369467</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>219.4517041866519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>15.09910835322274</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>33.82891891787487</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691078</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517.887535471215</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>552.807938939214</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535336</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4454,7 +4454,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.322087337517</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>527.322087337517</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1995.741330469123</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1626.778813528711</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1268.513114921961</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>882.7248623237165</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>471.7389575341089</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176917</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y5" t="n">
-        <v>2678.274518176917</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>679.6952191369613</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>679.6952191369613</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>679.6952191369613</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>679.6952191369613</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>679.6952191369613</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.6952191369613</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033361</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>647.3667606649364</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>829.0152254951761</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>829.0152254951761</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>829.0152254951761</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>829.0152254951761</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>829.0152254951761</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.0152254951761</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
@@ -5050,7 +5050,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5302,28 +5302,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>315.9123021921482</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.7543264856228</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5430,10 +5430,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W16" t="n">
-        <v>1331.18492135741</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.195370459393</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.4027913158625</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784064</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504995</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381638</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1851.318825887154</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3028.451182298828</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2859.514999370921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2709.398359958586</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3658.881777170615</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3430.892226272598</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3210.099647129068</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>561.5076234051069</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.053792872764</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.452327895704</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1754.377101239902</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.692613034015</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>982.2858920990373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6445,34 +6445,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213089</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,19 +6955,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>422.7903292978459</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>274.8772357154528</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>127.9872882175424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>127.9872882175424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>53.40527886852264</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>185.0317184880959</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>161.3036423121236</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>20.61870490125256</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>69.4916847264259</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>65.3313349113443</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>6.052274046183271</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>74.19629618688128</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>66.73277020259223</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>271.4238899833683</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>106.465793928349</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>145.6085800303775</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.504384641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
@@ -26349,13 +26349,13 @@
         <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26450,13 +26450,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083974</v>
+        <v>-832389.9260083975</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191951</v>
+        <v>496354.819719195</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191948</v>
+        <v>496354.819719195</v>
       </c>
       <c r="E6" t="n">
-        <v>244102.9780983637</v>
+        <v>243755.5988440069</v>
       </c>
       <c r="F6" t="n">
-        <v>569515.4399057191</v>
+        <v>569168.0606513618</v>
       </c>
       <c r="G6" t="n">
-        <v>569515.4399057191</v>
+        <v>569168.0606513619</v>
       </c>
       <c r="H6" t="n">
-        <v>569515.4399057191</v>
+        <v>569168.0606513617</v>
       </c>
       <c r="I6" t="n">
-        <v>569515.439905719</v>
+        <v>569168.0606513619</v>
       </c>
       <c r="J6" t="n">
-        <v>351984.2375084411</v>
+        <v>351636.8582540843</v>
       </c>
       <c r="K6" t="n">
-        <v>569515.4399057189</v>
+        <v>569168.0606513619</v>
       </c>
       <c r="L6" t="n">
-        <v>569515.4399057188</v>
+        <v>569168.0606513618</v>
       </c>
       <c r="M6" t="n">
-        <v>484460.411970207</v>
+        <v>484113.03271585</v>
       </c>
       <c r="N6" t="n">
-        <v>569515.4399057191</v>
+        <v>569168.0606513618</v>
       </c>
       <c r="O6" t="n">
-        <v>569515.4399057187</v>
+        <v>569168.0606513619</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.4399057187</v>
+        <v>569168.0606513621</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
@@ -26801,19 +26801,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.00710417072264</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>377.9418368861307</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>141.2095520294561</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.95783295555782</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>51.32408273547316</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>69.70123313180514</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>349.8910368433326</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>207.0466090246039</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>128.5958867563899</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776814</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>211.0222436375122</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32314,13 +32314,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>590.4022545401851</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>451.7125911569009</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>730.4561889249562</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>223.6976288294625</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>336.3457189021236</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>73.18080466315317</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>451.8478747603109</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>313.1582113770268</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>599.1144768416229</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>81.10138438501811</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>205.0040068187903</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964330.631751184</v>
+        <v>2966091.162053971</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.93420885558077</v>
+        <v>394.2071006265883</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677224</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>359.5976429179803</v>
+        <v>359.5976429179789</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>192.9533909753955</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>199.8294367171075</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.552212841269</v>
+        <v>131.5522128412687</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946216</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>127.6210071331219</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>73.57849775387133</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>9.570729811036321</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>40.36264995190442</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>160.9359580870421</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>10.74993283584265</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>71.79687029691078</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4309,13 +4309,13 @@
         <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>552.807938939214</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>552.807938939214</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="E2" t="n">
-        <v>552.807938939214</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4330,16 +4330,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
@@ -4406,55 +4406,55 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4488,52 +4488,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.741330469123</v>
+        <v>1995.741330469122</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.778813528711</v>
+        <v>1626.77881352871</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.513114921961</v>
+        <v>1268.513114921959</v>
       </c>
       <c r="E5" t="n">
-        <v>882.7248623237165</v>
+        <v>882.7248623237151</v>
       </c>
       <c r="F5" t="n">
-        <v>471.7389575341089</v>
+        <v>471.7389575341076</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533245</v>
+        <v>2382.341170533243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.341170533245</v>
+        <v>2382.341170533243</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4707,28 +4707,28 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596504</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1381.278680221568</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1023.012981614817</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.012981614817</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4843,7 +4843,7 @@
         <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
         <v>2158.017852261501</v>
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4962,46 +4962,46 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
         <v>788.005982746196</v>
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5281,37 +5281,37 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2251.007271617388</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2031.40580664033</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1742.330579984527</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1487.64609177864</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1198.22892174168</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2187.395141638036</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6220,43 +6220,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,28 +6451,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,55 +6597,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,25 +6691,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2284.401509754965</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2064.800044777906</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1775.724818122104</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,7 +7496,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
         <v>1520.445529061503</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>53.40527886852264</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>212.9445005827197</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>20.09032791460254</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>145.6085800303775</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
@@ -26349,13 +26349,13 @@
         <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26438,13 +26438,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083975</v>
+        <v>-832389.9260083976</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="E6" t="n">
-        <v>243755.5988440069</v>
+        <v>244068.2401729276</v>
       </c>
       <c r="F6" t="n">
-        <v>569168.0606513618</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="G6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="H6" t="n">
-        <v>569168.0606513617</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="I6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="J6" t="n">
-        <v>351636.8582540843</v>
+        <v>351949.4995830058</v>
       </c>
       <c r="K6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="L6" t="n">
-        <v>569168.0606513618</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="M6" t="n">
-        <v>484113.03271585</v>
+        <v>484425.6740447712</v>
       </c>
       <c r="N6" t="n">
-        <v>569168.0606513618</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="O6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="P6" t="n">
-        <v>569168.0606513621</v>
+        <v>569480.7019802833</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>377.9418368861307</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351651</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>51.32408273547316</v>
+        <v>51.32408273547452</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>172.319500795612</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>207.0466090246039</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.15744254776814</v>
+        <v>94.15744254776845</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
